--- a/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/output/cytoscape/Shortnames_ZR_2023-08-10 (1).xlsx
+++ b/_I_UJI-Omics-phd/_S_multiOmicsIntegra/_A_09_NetworksSKM-R/output/cytoscape/Shortnames_ZR_2023-08-10 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\OneDrive\Documentos\GitHub\UJI-Omics-phd\_I_UJI-Omics-phd\_S_multiOmicsIntegra\_A_09_NetworksSKM-R\output\cytoscape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABC5BE3-66DE-478D-B5BB-E13EC4AE3621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83708403-9C36-46E5-AC25-179C8D926899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_original-list" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="190">
   <si>
     <t>B02_AGPase</t>
   </si>
@@ -220,9 +220,6 @@
     <t>2.6.1.2</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>enzymeName</t>
   </si>
   <si>
@@ -572,13 +569,52 @@
   </si>
   <si>
     <t>4099985(rbcL)</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>GDH_NAD</t>
+  </si>
+  <si>
+    <t>MDH_NAD</t>
+  </si>
+  <si>
+    <t>MDHi_NADP</t>
+  </si>
+  <si>
+    <t>PEPC</t>
+  </si>
+  <si>
+    <t>Ppi</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FBPA</t>
+  </si>
+  <si>
+    <t>FBPase_cyt</t>
+  </si>
+  <si>
+    <t>NADP_GAPDH</t>
+  </si>
+  <si>
+    <t>PGM</t>
+  </si>
+  <si>
+    <t>PGKd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +783,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -941,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1065,6 +1109,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1121,9 +1189,9 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1482,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EABA425-629D-4413-8EFE-76A884E3AC76}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -1494,17 +1562,17 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" ht="19.8">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1512,7 +1580,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1520,15 +1588,15 @@
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
+      <c r="B4" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1536,15 +1604,15 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>60</v>
+      <c r="B6" s="7" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1552,31 +1620,31 @@
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>60</v>
+      <c r="B8" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
+      <c r="B9" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
+      <c r="B10" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1584,23 +1652,23 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>60</v>
+      <c r="B12" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
+      <c r="B13" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1608,31 +1676,31 @@
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>60</v>
+      <c r="B15" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
+      <c r="B16" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>60</v>
+      <c r="B17" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1640,15 +1708,15 @@
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>60</v>
+      <c r="B19" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1656,23 +1724,23 @@
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>60</v>
+      <c r="B21" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>60</v>
+      <c r="B22" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1680,15 +1748,15 @@
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>60</v>
+      <c r="B24" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1716,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -1846,7 +1914,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
@@ -1879,13 +1947,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1929,39 +1997,37 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1">
-      <c r="C18" s="8"/>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1">
-      <c r="C19" s="8"/>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>89</v>
+      <c r="E19" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1972,7 +2038,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -2005,13 +2071,13 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2019,7 +2085,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2027,7 +2093,7 @@
         <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2038,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2052,7 +2118,7 @@
         <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2060,24 +2126,24 @@
         <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2085,7 +2151,7 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2093,7 +2159,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2104,7 +2170,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>40</v>
@@ -2142,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34630D8-7974-4394-80BD-E663ABC7BC6E}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>27</v>
@@ -2186,22 +2252,22 @@
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2219,13 +2285,13 @@
         <v>543968</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2237,10 +2303,10 @@
         <v>102577790</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="H4" s="1">
         <v>102592916</v>
@@ -2249,7 +2315,7 @@
         <v>102598180</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -2267,16 +2333,16 @@
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2333,25 +2399,25 @@
         <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
         <v>105</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>107</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2378,28 +2444,28 @@
         <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
         <v>110</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>111</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>112</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>113</v>
-      </c>
-      <c r="J11" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2443,47 +2509,45 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:19" s="7" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="7" customFormat="1">
-      <c r="C18" s="8"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="7" customFormat="1">
-      <c r="C19" s="8"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19">
         <v>102585856</v>
       </c>
     </row>
@@ -2495,22 +2559,22 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>119</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2518,7 +2582,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21">
         <v>101249641</v>
@@ -2530,7 +2594,7 @@
         <v>101256813</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21">
         <v>101263770</v>
@@ -2544,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>102583988</v>
@@ -2567,19 +2631,19 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" t="s">
         <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2604,10 +2668,10 @@
         <v>102578331</v>
       </c>
       <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
         <v>128</v>
-      </c>
-      <c r="G25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2618,34 +2682,34 @@
         <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" t="s">
         <v>130</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>131</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>132</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>133</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>134</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>135</v>
-      </c>
-      <c r="L26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2656,16 +2720,16 @@
         <v>101261091</v>
       </c>
       <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
         <v>137</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>138</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>139</v>
-      </c>
-      <c r="I27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -2689,62 +2753,62 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" t="s">
         <v>141</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>142</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>143</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>144</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>145</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>146</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>147</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>148</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>149</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>150</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>151</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>152</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>153</v>
-      </c>
-      <c r="S29" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2767,22 +2831,22 @@
         <v>101268695</v>
       </c>
       <c r="J30" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" t="s">
         <v>155</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>156</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>157</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>158</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>159</v>
-      </c>
-      <c r="O30" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2790,7 +2854,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31">
         <v>102581558</v>
@@ -2805,10 +2869,10 @@
         <v>102594044</v>
       </c>
       <c r="J31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" t="s">
         <v>162</v>
-      </c>
-      <c r="K31" t="s">
-        <v>163</v>
       </c>
       <c r="L31">
         <v>102603762</v>
@@ -2817,10 +2881,10 @@
         <v>102604100</v>
       </c>
       <c r="N31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" t="s">
         <v>164</v>
-      </c>
-      <c r="O31" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2831,25 +2895,25 @@
         <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" t="s">
         <v>166</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>167</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>168</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>169</v>
-      </c>
-      <c r="I32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="4:10">
@@ -2860,13 +2924,13 @@
         <v>101257875</v>
       </c>
       <c r="F33" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" t="s">
         <v>171</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>172</v>
-      </c>
-      <c r="H33" t="s">
-        <v>173</v>
       </c>
       <c r="I33">
         <v>543974</v>
@@ -2883,16 +2947,16 @@
         <v>102580042</v>
       </c>
       <c r="G34" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" t="s">
         <v>174</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>175</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>176</v>
-      </c>
-      <c r="J34" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
